--- a/datasets/historico.xlsx
+++ b/datasets/historico.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/275e1cc0366b6475/Documentos/iH/Restaurantes/Evaluacion-Restaurantes/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{56EB1D7D-C406-4572-927A-7A219464B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6048D64-0F4E-4DDE-BF50-DC1FF0170656}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{56EB1D7D-C406-4572-927A-7A219464B9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AC6AF04-C675-4413-AF2F-BE7976802957}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{31E15860-0AE2-4510-9F0C-83B2E768CD53}"/>
+    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{31E15860-0AE2-4510-9F0C-83B2E768CD53}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>mes</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Plaza W</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
   </si>
 </sst>
 </file>
@@ -173,6 +176,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,9 +499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCBACE52-5F68-4E51-BB65-29845221752C}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1347,6 +1356,270 @@
         <v>260.33199999999999</v>
       </c>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1">
+        <v>428814.99910000002</v>
+      </c>
+      <c r="E20" s="1">
+        <v>300289.65510000003</v>
+      </c>
+      <c r="F20">
+        <v>70</v>
+      </c>
+      <c r="G20" s="1">
+        <v>128525.34400000001</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>708</v>
+      </c>
+      <c r="L20">
+        <v>605.67090000000007</v>
+      </c>
+      <c r="M20">
+        <v>1299</v>
+      </c>
+      <c r="N20">
+        <v>330.11160000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>401437.08620000002</v>
+      </c>
+      <c r="E21" s="1">
+        <v>375820.77600000001</v>
+      </c>
+      <c r="F21">
+        <v>93.6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>25616.3102</v>
+      </c>
+      <c r="H21">
+        <v>6.4</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>563</v>
+      </c>
+      <c r="L21">
+        <v>713.03210000000001</v>
+      </c>
+      <c r="M21">
+        <v>1413</v>
+      </c>
+      <c r="N21">
+        <v>284.10270000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="1">
+        <v>425841.11220000003</v>
+      </c>
+      <c r="E22" s="1">
+        <v>402845.7671</v>
+      </c>
+      <c r="F22">
+        <v>94.6</v>
+      </c>
+      <c r="G22" s="1">
+        <v>22995.345100000002</v>
+      </c>
+      <c r="H22">
+        <v>5.4</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>639</v>
+      </c>
+      <c r="L22">
+        <v>666.41800000000001</v>
+      </c>
+      <c r="M22">
+        <v>1602</v>
+      </c>
+      <c r="N22">
+        <v>265.8184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1105008.3631</v>
+      </c>
+      <c r="E23" s="1">
+        <v>992631.63950000005</v>
+      </c>
+      <c r="F23">
+        <v>89.8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>112376.72360000001</v>
+      </c>
+      <c r="H23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1552</v>
+      </c>
+      <c r="L23">
+        <v>711.98990000000003</v>
+      </c>
+      <c r="M23">
+        <v>4495</v>
+      </c>
+      <c r="N23">
+        <v>245.8306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1119335.5169000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>938555.174</v>
+      </c>
+      <c r="F24">
+        <v>83.9</v>
+      </c>
+      <c r="G24" s="1">
+        <v>180780.34290000002</v>
+      </c>
+      <c r="H24">
+        <v>16.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>1961</v>
+      </c>
+      <c r="L24">
+        <v>570.79830000000004</v>
+      </c>
+      <c r="M24">
+        <v>4651</v>
+      </c>
+      <c r="N24">
+        <v>240.66560000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="1">
+        <v>658421.41430000006</v>
+      </c>
+      <c r="E25" s="1">
+        <v>429230.29470000003</v>
+      </c>
+      <c r="F25">
+        <v>65.2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>229191.11960000001</v>
+      </c>
+      <c r="H25">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1257</v>
+      </c>
+      <c r="L25">
+        <v>523.80380000000002</v>
+      </c>
+      <c r="M25">
+        <v>2564</v>
+      </c>
+      <c r="N25">
+        <v>256.7946</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
